--- a/libras_500.xlsx
+++ b/libras_500.xlsx
@@ -16,90 +16,99 @@
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>FRANCISMARA FERNANDES DE CASTRO VALÉRIO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>MAICON VINICIUS FERREIRA BARROS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>MARIA APARECIDA LAMARCA DO NASCIMENTO DIAS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>CRISTIANE MARQUES DE BRITTO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>JORDANA CECILIA DO CARMO FLORENTINO (Item 4.5 do edital)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>LILIAN CARLA DE OLIVEIRA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>DEBORAH CAMILA DE CASTRO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>FÁBIO CRISTIANO DE PAULA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>SIMONE MESSIAS DO NASCIMENTO</t>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Lilian Carla De Oliveira</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Deborah Camila De Castro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Fábio Cristiano De Paula</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Simone Messias Do Nascimento</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Wellington Blendon Pilato Leandro (Item 4.5 Do Edital)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Suellen Melo De Oliveira</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Fabiana Aparecida De Paula</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Adelcia Durães Franco</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Miriam Aparecida Pires</t>
     </r>
   </si>
   <si>
@@ -121,15 +130,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <color rgb="FF000009"/>
       <name val="Times New Roman"/>
     </font>
     <font>
+      <b/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -143,8 +153,36 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -163,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -173,7 +211,20 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -392,84 +443,84 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.38"/>
-    <col customWidth="1" min="2" max="2" width="31.88"/>
+    <col customWidth="1" min="2" max="2" width="34.75"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1">
-        <v>45.0</v>
+        <v>50.0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>46.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3">
+        <v>51.0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>48.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="5">
+        <v>52.0</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="5">
+        <v>53.0</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="5">
+        <v>14.0</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="5">
+        <v>54.0</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <v>51.0</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="5">
+        <v>55.0</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
-        <v>52.0</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="5">
+        <v>56.0</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
-        <v>53.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="5">
+        <v>57.0</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
     </row>

--- a/libras_500.xlsx
+++ b/libras_500.xlsx
@@ -11,118 +11,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Lilian Carla De Oliveira</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Deborah Camila De Castro</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Fábio Cristiano De Paula</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Simone Messias Do Nascimento</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Wellington Blendon Pilato Leandro (Item 4.5 Do Edital)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Suellen Melo De Oliveira</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Fabiana Aparecida De Paula</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Adelcia Durães Franco</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Miriam Aparecida Pires</t>
-    </r>
-  </si>
-  <si>
-    <t>FIM - LIBRAS</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+  <si>
+    <t>SUELLEN MELO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>FABIANA APARECIDA DE PAULA</t>
+  </si>
+  <si>
+    <t>ADELCIA DURÃES FRANCO</t>
+  </si>
+  <si>
+    <t>MIRIAM APARECIDA PIRES</t>
+  </si>
+  <si>
+    <t>CAROLINA ROSA TEIXEIRA</t>
+  </si>
+  <si>
+    <t>SIMONI TEDESCO</t>
+  </si>
+  <si>
+    <t>Item 4.4 do edital</t>
+  </si>
+  <si>
+    <t>CAROLINA DA SILVA BASTOS</t>
+  </si>
+  <si>
+    <t>MONICA MARIA MANÇO</t>
+  </si>
+  <si>
+    <t>RENAN NORBERTO</t>
+  </si>
+  <si>
+    <t>MIRELLA DE OLIVEIRA PENA ARAÚJO (Item 4.5 do edital)</t>
+  </si>
+  <si>
+    <t>RITA DE CASSIA MATHEUS CARVALHO</t>
+  </si>
+  <si>
+    <t>RAQUEL SILVA MARIANO</t>
+  </si>
+  <si>
+    <t>PATRICIA APARECIDA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>CAMILA FERREIRA MARQUES DE ALMEIDA ALBUQUERQUE</t>
+  </si>
+  <si>
+    <t>FABIO DA CRUZ NASCIMENTO (Item 4.5 do edital)</t>
+  </si>
+  <si>
+    <t>ANTONIO LEVY BOTERO NETO</t>
+  </si>
+  <si>
+    <t>MARILENE DOS SANTOS AMERICO</t>
+  </si>
+  <si>
+    <t>Item 4.5 do edital</t>
+  </si>
+  <si>
+    <t>DANDARA SANTOS DINIZ</t>
+  </si>
+  <si>
+    <t>GABRIELA CRISTINA DE SOUZA</t>
+  </si>
+  <si>
+    <t>CÁTIA MARIA DE ANDRADE PAULA</t>
+  </si>
+  <si>
+    <t>FABIANA EUGÊNIA REIS SILVA</t>
+  </si>
+  <si>
+    <t>ELIZABETH APARECIDA DE ALMEIDA TALHA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="###0;###0"/>
-  </numFmts>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -130,102 +97,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <color rgb="FF000009"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <sz val="9.0"/>
+      <color rgb="FF333333"/>
+      <name val="&quot;Open Sans&quot;"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,86 +347,221 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="34.75"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1">
-        <v>50.0</v>
+        <v>54.0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
-        <v>51.0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5">
-        <v>52.0</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5">
-        <v>53.0</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5">
-        <v>14.0</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5">
-        <v>54.0</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5">
-        <v>55.0</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5">
-        <v>56.0</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5">
-        <v>57.0</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>62.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8" t="s">
+    <row r="11">
+      <c r="A11" s="1">
+        <v>63.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>65.0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>66.0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>67.0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>68.0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>69.0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>71.0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>73.0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>74.0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>76.0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/libras_500.xlsx
+++ b/libras_500.xlsx
@@ -25,7 +25,7 @@
     <t>MIRIAM APARECIDA PIRES</t>
   </si>
   <si>
-    <t>CAROLINA ROSA TEIXEIRA</t>
+    <t>CAROLINA ROSA TEIXEIRA (item 4.5 do edital)</t>
   </si>
   <si>
     <t>SIMONI TEDESCO</t>
